--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.193535364409654</v>
+        <v>0.3962276666666666</v>
       </c>
       <c r="N2">
-        <v>0.193535364409654</v>
+        <v>1.188683</v>
       </c>
       <c r="O2">
-        <v>0.1042377163903351</v>
+        <v>0.1703050239984229</v>
       </c>
       <c r="P2">
-        <v>0.1042377163903351</v>
+        <v>0.1960950025990754</v>
       </c>
       <c r="Q2">
-        <v>0.07192008789716241</v>
+        <v>0.1538953540368889</v>
       </c>
       <c r="R2">
-        <v>0.07192008789716241</v>
+        <v>1.385058186332</v>
       </c>
       <c r="S2">
-        <v>0.1042377163903351</v>
+        <v>0.1703050239984229</v>
       </c>
       <c r="T2">
-        <v>0.1042377163903351</v>
+        <v>0.1960950025990754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5354338430498879</v>
+        <v>0.6295006666666667</v>
       </c>
       <c r="N3">
-        <v>0.5354338430498879</v>
+        <v>1.888502</v>
       </c>
       <c r="O3">
-        <v>0.2883834757945528</v>
+        <v>0.270569511325618</v>
       </c>
       <c r="P3">
-        <v>0.2883834757945528</v>
+        <v>0.3115429467724861</v>
       </c>
       <c r="Q3">
-        <v>0.1989737078426299</v>
+        <v>0.2444988982675556</v>
       </c>
       <c r="R3">
-        <v>0.1989737078426299</v>
+        <v>2.200490084408</v>
       </c>
       <c r="S3">
-        <v>0.2883834757945528</v>
+        <v>0.270569511325618</v>
       </c>
       <c r="T3">
-        <v>0.2883834757945528</v>
+        <v>0.3115429467724861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.151949911846631</v>
+        <v>0.1632393333333333</v>
       </c>
       <c r="N4">
-        <v>0.151949911846631</v>
+        <v>0.489718</v>
       </c>
       <c r="O4">
-        <v>0.08183988422436068</v>
+        <v>0.07016289098309612</v>
       </c>
       <c r="P4">
-        <v>0.08183988422436068</v>
+        <v>0.08078794134585419</v>
       </c>
       <c r="Q4">
-        <v>0.05646642952987177</v>
+        <v>0.06340237471911112</v>
       </c>
       <c r="R4">
-        <v>0.05646642952987177</v>
+        <v>0.5706213724720001</v>
       </c>
       <c r="S4">
-        <v>0.08183988422436068</v>
+        <v>0.07016289098309612</v>
       </c>
       <c r="T4">
-        <v>0.08183988422436068</v>
+        <v>0.08078794134585419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H5">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207626103926024</v>
+        <v>0.2196503333333334</v>
       </c>
       <c r="N5">
-        <v>0.207626103926024</v>
+        <v>0.6589510000000001</v>
       </c>
       <c r="O5">
-        <v>0.1118269573226977</v>
+        <v>0.0944092460889781</v>
       </c>
       <c r="P5">
-        <v>0.1118269573226977</v>
+        <v>0.1087060200723518</v>
       </c>
       <c r="Q5">
-        <v>0.07715637754192357</v>
+        <v>0.08531248233377781</v>
       </c>
       <c r="R5">
-        <v>0.07715637754192357</v>
+        <v>0.7678123410040002</v>
       </c>
       <c r="S5">
-        <v>0.1118269573226977</v>
+        <v>0.0944092460889781</v>
       </c>
       <c r="T5">
-        <v>0.1118269573226977</v>
+        <v>0.1087060200723518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H6">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.768127880435283</v>
+        <v>0.9179585</v>
       </c>
       <c r="N6">
-        <v>0.768127880435283</v>
+        <v>1.835917</v>
       </c>
       <c r="O6">
-        <v>0.4137119662680536</v>
+        <v>0.394553327603885</v>
       </c>
       <c r="P6">
-        <v>0.4137119662680536</v>
+        <v>0.3028680892102324</v>
       </c>
       <c r="Q6">
-        <v>0.2854456333894237</v>
+        <v>0.3565363053446667</v>
       </c>
       <c r="R6">
-        <v>0.2854456333894237</v>
+        <v>2.139217832068</v>
       </c>
       <c r="S6">
-        <v>0.4137119662680536</v>
+        <v>0.394553327603885</v>
       </c>
       <c r="T6">
-        <v>0.4137119662680536</v>
+        <v>0.3028680892102324</v>
       </c>
     </row>
   </sheetData>
